--- a/Diplomarbeit/Dokumentation Word/Stundenliste.xlsx
+++ b/Diplomarbeit/Dokumentation Word/Stundenliste.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21001"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A86D9406-5C9F-44F0-BAFE-49B1658BB97B}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{84833163-2336-4B95-989E-DAEFB0BE0CD8}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -11,6 +11,7 @@
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="179021"/>
+  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -25,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="28">
   <si>
     <t>Datum</t>
   </si>
@@ -103,6 +104,12 @@
   </si>
   <si>
     <t>Interface Programmieren (ohne Display)</t>
+  </si>
+  <si>
+    <t>Rahmen des Displays</t>
+  </si>
+  <si>
+    <t>Plakat - neu geschrieben</t>
   </si>
 </sst>
 </file>
@@ -524,10 +531,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H17"/>
+  <dimension ref="A1:H19"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="87" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="F22" sqref="F22"/>
+    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="77" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="F19" sqref="F19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="18.600000000000001" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -871,6 +878,46 @@
         <v>25</v>
       </c>
     </row>
+    <row r="18" spans="1:6" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="2">
+        <v>43422</v>
+      </c>
+      <c r="B18" s="4">
+        <v>0.625</v>
+      </c>
+      <c r="C18" s="4">
+        <v>0.75</v>
+      </c>
+      <c r="D18" s="3">
+        <v>180</v>
+      </c>
+      <c r="E18" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="F18" s="3" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A19" s="2">
+        <v>43422</v>
+      </c>
+      <c r="B19" s="4">
+        <v>0.83333333333333337</v>
+      </c>
+      <c r="C19" s="4">
+        <v>0.85416666666666663</v>
+      </c>
+      <c r="D19" s="3">
+        <v>30</v>
+      </c>
+      <c r="E19" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="F19" s="3" t="s">
+        <v>27</v>
+      </c>
+    </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="H6:H7"/>

--- a/Diplomarbeit/Dokumentation Word/Stundenliste.xlsx
+++ b/Diplomarbeit/Dokumentation Word/Stundenliste.xlsx
@@ -1,17 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21001"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21029"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{84833163-2336-4B95-989E-DAEFB0BE0CD8}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D9DFB1D2-9A25-43B9-9373-35A0AC649F04}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="179021"/>
-  <fileRecoveryPr repairLoad="1"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -19,6 +18,7 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="32">
   <si>
     <t>Datum</t>
   </si>
@@ -110,6 +110,18 @@
   </si>
   <si>
     <t>Plakat - neu geschrieben</t>
+  </si>
+  <si>
+    <t>Einarbeiten für 3D-Programm</t>
+  </si>
+  <si>
+    <t>3D-Drucken</t>
+  </si>
+  <si>
+    <t>Tag der Offenen Tür</t>
+  </si>
+  <si>
+    <t>Zwischenstand</t>
   </si>
 </sst>
 </file>
@@ -148,7 +160,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="5">
+  <borders count="8">
     <border>
       <left/>
       <right/>
@@ -212,11 +224,48 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -250,6 +299,15 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -531,10 +589,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H19"/>
+  <dimension ref="A1:H23"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="77" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="F19" sqref="F19"/>
+    <sheetView tabSelected="1" zoomScale="77" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="E26" sqref="E26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="18.600000000000001" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -918,9 +976,81 @@
         <v>27</v>
       </c>
     </row>
+    <row r="20" spans="1:6" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A20" s="2">
+        <v>43428</v>
+      </c>
+      <c r="B20" s="4">
+        <v>0.58333333333333337</v>
+      </c>
+      <c r="C20" s="4">
+        <v>0.64583333333333337</v>
+      </c>
+      <c r="D20" s="3">
+        <v>90</v>
+      </c>
+      <c r="E20" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="F20" s="3" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A21" s="2">
+        <v>43439</v>
+      </c>
+      <c r="B21" s="4">
+        <v>0.39583333333333331</v>
+      </c>
+      <c r="C21" s="4">
+        <v>0.52083333333333337</v>
+      </c>
+      <c r="D21" s="3">
+        <v>180</v>
+      </c>
+      <c r="E21" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="F21" s="3" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A22" s="2">
+        <v>43441</v>
+      </c>
+      <c r="B22" s="4">
+        <v>0.3263888888888889</v>
+      </c>
+      <c r="C22" s="4">
+        <v>0.72916666666666663</v>
+      </c>
+      <c r="D22" s="3">
+        <v>600</v>
+      </c>
+      <c r="E22" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="F22" s="3" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A23" s="12" t="s">
+        <v>31</v>
+      </c>
+      <c r="B23" s="13"/>
+      <c r="C23" s="14"/>
+      <c r="D23" s="3">
+        <f>D3+D4+D5+D6+D7+D8+D11+D12+D13+D14+D15+D16+D17+D18+D19+D20+D21+D22</f>
+        <v>2610</v>
+      </c>
+    </row>
   </sheetData>
-  <mergeCells count="1">
+  <mergeCells count="2">
     <mergeCell ref="H6:H7"/>
+    <mergeCell ref="A23:C23"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
